--- a/inst/templates/templateProject/Parameters/Plots.xlsx
+++ b/inst/templates/templateProject/Parameters/Plots.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBE5E6B-6004-4F84-B9DA-FF4E2A314D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230F4F3-9264-49C0-9951-450990054109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="23985" windowHeight="13290" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3D43716F-F01F-40EA-AEC2-E6E5F12B752F}"/>
   </bookViews>
   <sheets>
-    <sheet name="TimeProfiles" sheetId="12" r:id="rId1"/>
+    <sheet name="DataGroups" sheetId="14" r:id="rId1"/>
+    <sheet name="Outputs" sheetId="13" r:id="rId2"/>
+    <sheet name="TimeProfile_Panel" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>PanelName</t>
-  </si>
-  <si>
-    <t>PanelCaptionAddon</t>
-  </si>
-  <si>
-    <t>panel_facet_scale</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>ylimit_linear</t>
   </si>
@@ -55,9 +48,6 @@
     <t>TimeRange_total</t>
   </si>
   <si>
-    <t>time to first application</t>
-  </si>
-  <si>
     <t>used in figure caption</t>
   </si>
   <si>
@@ -70,14 +60,6 @@
     <t>ylimit used of log scale, should be something like c(0.1,NA) to set lower limit to 0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">all columns beginning with TimeRange, defines Time range sto display, 
-is should be something like c(0,24) [time displayUnit]
-or one of the following  total, firstApplication, lastApplication </t>
-  </si>
-  <si>
-    <t>DataGroupIds</t>
-  </si>
-  <si>
     <t>ReferenceScenario</t>
   </si>
   <si>
@@ -99,9 +81,6 @@
     <t>TimeOffset_Reference</t>
   </si>
   <si>
-    <t>TimeShift</t>
-  </si>
-  <si>
     <t>yScale</t>
   </si>
   <si>
@@ -114,7 +93,148 @@
     <t>TimeUnit</t>
   </si>
   <si>
-    <t>all plots wit the same panleName are plotted togetehr</t>
+    <t>PlotName</t>
+  </si>
+  <si>
+    <t>TimeOffset</t>
+  </si>
+  <si>
+    <t>Organism|Fat|Intracellular|Aciclovir|Concentration in container</t>
+  </si>
+  <si>
+    <t>Aciclovir_fat_cell</t>
+  </si>
+  <si>
+    <t>Organism|PeripheralVenousBlood|Aciclovir|Plasma (Peripheral Venous Blood)</t>
+  </si>
+  <si>
+    <t>Aciclovir_PVB</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>DisplayUnit</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>OutputPath</t>
+  </si>
+  <si>
+    <t>OutputPathId</t>
+  </si>
+  <si>
+    <t>ORAL</t>
+  </si>
+  <si>
+    <t>Model building &amp; evaluation</t>
+  </si>
+  <si>
+    <t>study 1234, 25mg PO SD - fasted</t>
+  </si>
+  <si>
+    <t>25gmg_fasted</t>
+  </si>
+  <si>
+    <t>meta data used for electronic package data</t>
+  </si>
+  <si>
+    <t>used for substructure of electronic package</t>
+  </si>
+  <si>
+    <t>reference used in figure footnotes in report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name used in report </t>
+  </si>
+  <si>
+    <t>study number of data</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>DataSection</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>StudyId</t>
+  </si>
+  <si>
+    <t>group identifier used in observed, typcially a study arm</t>
+  </si>
+  <si>
+    <t>identifier of observed data</t>
+  </si>
+  <si>
+    <t>model path</t>
+  </si>
+  <si>
+    <t>name used for legend and captions</t>
+  </si>
+  <si>
+    <t>unit to display</t>
+  </si>
+  <si>
+    <t>if not empty color used in plot</t>
+  </si>
+  <si>
+    <t>all plots with the same PlotName are plotted together, but in different facets</t>
+  </si>
+  <si>
+    <t>PlotCaptionAddon</t>
+  </si>
+  <si>
+    <t>DataGroupId</t>
+  </si>
+  <si>
+    <t>outputs in brackets are plotted in the same panel facet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c(0,24) or one of the following  total, firstApplication, lastApplication </t>
+  </si>
+  <si>
+    <t>time offset for simulation</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>FacetType</t>
+  </si>
+  <si>
+    <t>FacetScale</t>
+  </si>
+  <si>
+    <t>Plot_TimeProfiles</t>
+  </si>
+  <si>
+    <t>Plot_PredictedVsObserved</t>
+  </si>
+  <si>
+    <t>Plot_ResidualsAsHistogram</t>
+  </si>
+  <si>
+    <t>Plot_ResidualsVsTime</t>
+  </si>
+  <si>
+    <t>Plot_ResidualsVsObserved</t>
   </si>
 </sst>
 </file>
@@ -124,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +268,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +294,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -192,8 +339,30 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,233 +677,439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F50EB7-9B8D-43C6-8095-37A547673E3C}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F1300D-E280-40F6-949D-70DF19098984}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="4"/>
-    <col min="9" max="11" width="11.42578125" style="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C44529F-9EB1-491B-87DB-746A87886384}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F50EB7-9B8D-43C6-8095-37A547673E3C}">
+  <dimension ref="A1:Y40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="4"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="4"/>
+    <col min="13" max="15" width="11.42578125" style="1"/>
+    <col min="17" max="17" width="11.42578125" style="1"/>
+    <col min="18" max="18" width="9.5703125" style="1" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" style="1"/>
+    <col min="23" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="R1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="R2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="1"/>
-    </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="1"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576" xr:uid="{13F1023F-5A98-4D6E-BA71-EA9333B2FA4D}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P1048576" xr:uid="{13F1023F-5A98-4D6E-BA71-EA9333B2FA4D}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"""linear, log""","""linear""","""log"""</x12ac:list>
@@ -744,10 +1119,10 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{F95C858F-3253-4237-8BF2-F9DD8EC4434D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{F95C858F-3253-4237-8BF2-F9DD8EC4434D}">
       <formula1>"fixed,free_y,free_x,free"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3" xr:uid="{60FF446E-9C6C-49A6-A026-A60F9679395A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3" xr:uid="{60FF446E-9C6C-49A6-A026-A60F9679395A}">
       <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
         <mc:Choice Requires="x12ac">
           <x12ac:list>"linear, log",linear,log</x12ac:list>
@@ -757,21 +1132,48 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{20A59F64-98E3-4002-B689-D533103B53ED}">
-      <formula1>#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{8167B0C7-537A-4711-ADD8-FE058C8C9DFB}">
+      <formula1>"s, min, h, day(s), week(s), month(s), year(s), ks"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576" xr:uid="{73A7AEC7-4421-408B-8677-EF253B3F1CD8}">
+      <mc:AlternateContent xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x12ac">
+          <x12ac:list>"""by order", Scenario vs Output," Scenario vs TimeRange"""</x12ac:list>
+        </mc:Choice>
+        <mc:Fallback>
+          <formula1>"""by order, Scenario vs Output, Scenario vs TimeRange"""</formula1>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:Y1048576" xr:uid="{70A0E21A-8BF0-41AA-839A-966122E11CB4}">
+      <formula1>"WAHR,FALSCH"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E97C6889-0A30-48C2-9647-A930450F01CD}">
+          <x14:formula1>
+            <xm:f>DataGroups!$B$3:$B$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -978,20 +1380,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1016,12 +1419,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DA2F2C-8C96-42F3-AA23-50DABD54D547}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCC0D355-BB44-49CE-BEA9-BF722D315860}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>